--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimonJi/Desktop/cs598_dm/task6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6473D-7000-A44C-A50E-682FA1A2DE54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85701AF-2E64-8243-9DC8-FB8171E8A136}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="560" windowWidth="28040" windowHeight="17040" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
+    <workbookView xWindow="7360" yWindow="6740" windowWidth="28040" windowHeight="17040" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimonJi/Desktop/cs598_dm/task6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geesi\Desktop\cs598_dm_cap\task6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85701AF-2E64-8243-9DC8-FB8171E8A136}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897E423-7296-4010-9E62-230508D667FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="6740" windowWidth="28040" windowHeight="17040" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
+    <workbookView xWindow="9180" yWindow="1710" windowWidth="24950" windowHeight="19390" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="with Topword Feature" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>WordCount</t>
   </si>
@@ -57,44 +57,137 @@
     <t>XGBoosting</t>
   </si>
   <si>
-    <t>TF-IDF (plus Meta Info)</t>
-  </si>
-  <si>
     <t>TF-IDF n-gram</t>
   </si>
   <si>
+    <t>WordCount (plus Meta Info)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF (plus CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF (plus Meta)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cusine + Zipcode (CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TF-IDF n-gram (plus Meta Info)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Topic Model  (plus Meta Info)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Doc2Vec (plus Meta Info)</t>
-  </si>
-  <si>
-    <t>Meta Info</t>
-  </si>
-  <si>
-    <t>Only Cusine + Zipcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF n-gram (plus CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordCount (plus CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic Model  (plus CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doc2Vec (plus CZ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features\Models</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,17 +232,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,142 +569,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1378E2-4645-E84F-9A85-C72496217D5F}">
-  <dimension ref="A3:E15"/>
+  <dimension ref="A3:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.629</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="6">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="5">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.623</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.629</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geesi\Desktop\cs598_dm_cap\task6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimonJi/Desktop/cs598_dm/task6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897E423-7296-4010-9E62-230508D667FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863DF55-4A8F-8348-934D-024AE54519AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1710" windowWidth="24950" windowHeight="19390" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
+    <workbookView xWindow="3840" yWindow="460" windowWidth="24960" windowHeight="17540" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="with Topword Feature" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>WordCount</t>
   </si>
@@ -55,57 +55,6 @@
   </si>
   <si>
     <t>XGBoosting</t>
-  </si>
-  <si>
-    <t>TF-IDF n-gram</t>
-  </si>
-  <si>
-    <t>WordCount (plus Meta Info)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF (plus CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF (plus Meta)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cusine + Zipcode (CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF n-gram (plus Meta Info)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic Model  (plus Meta Info)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doc2Vec (plus Meta Info)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF n-gram (plus CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WordCount (plus CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic Model  (plus CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doc2Vec (plus CZ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Linear Regression</t>
@@ -118,6 +67,63 @@
   <si>
     <t>Features\Models</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaInfo</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>TF-IDF (1,3)-gram</t>
+  </si>
+  <si>
+    <t>WordCount + MetaInfo</t>
+  </si>
+  <si>
+    <t>WordCount + CZ</t>
+  </si>
+  <si>
+    <t>TF-IDF + MetaInfo</t>
+  </si>
+  <si>
+    <t>TF-IDF + CZ</t>
+  </si>
+  <si>
+    <t>TF-IDF (1,3)-gram + MetaInfo</t>
+  </si>
+  <si>
+    <t>TF-IDF (1,3)-gram + CZ</t>
+  </si>
+  <si>
+    <t>Topic Model  + MetaInfo</t>
+  </si>
+  <si>
+    <t>Topic Model  + CZ</t>
+  </si>
+  <si>
+    <t>Doc2Vec + MetaInfo</t>
+  </si>
+  <si>
+    <t>Doc2Vec + CZ</t>
+  </si>
+  <si>
+    <t>TT+ MetaInfo</t>
+  </si>
+  <si>
+    <t>TT  + CZ</t>
+  </si>
+  <si>
+    <t>DT + MetaInfo</t>
+  </si>
+  <si>
+    <t>DT + CZ</t>
+  </si>
+  <si>
+    <t>Cusine + Zipcode (CZ)</t>
   </si>
 </sst>
 </file>
@@ -125,26 +131,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -159,7 +165,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +174,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +182,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +191,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,22 +248,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,24 +578,24 @@
   <dimension ref="A3:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.69140625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="19">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -601,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="19">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -621,9 +627,9 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="19">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5">
         <v>0.627</v>
@@ -641,7 +647,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="19">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,9 +667,9 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="19">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>0.66200000000000003</v>
@@ -681,9 +687,9 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="19">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>0.65600000000000003</v>
@@ -701,7 +707,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="19">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,9 +727,9 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="19">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <v>0.70199999999999996</v>
@@ -741,9 +747,9 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="19">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>0.67400000000000004</v>
@@ -761,9 +767,9 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="19">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>0.64900000000000002</v>
@@ -781,9 +787,9 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="19">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>0.69099999999999995</v>
@@ -802,9 +808,9 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="19">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>0.66600000000000004</v>
@@ -822,166 +828,286 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="19">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="5">
-        <v>0.65200000000000002</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.68</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
-        <v>0.60699999999999998</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.629</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.627</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
-        <v>0.64800000000000002</v>
+        <v>0</v>
       </c>
       <c r="C17" s="5">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.65</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>0.61099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
+      <c r="B18" s="5">
+        <v>0</v>
       </c>
       <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.623</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D22" s="6">
+        <v>0.629</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E24" s="5">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F24" s="5">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="25" spans="1:6" ht="19">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D25" s="6">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E25" s="5">
         <v>0.61699999999999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F25" s="5">
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5">
+    <row r="26" spans="1:6" ht="19">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D26" s="6">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E26" s="5">
         <v>0.63</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F26" s="5">
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="3"/>
     </row>
   </sheetData>

--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimonJi/Desktop/cs598_dm/task6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geesi\Desktop\cs598_dm_cap\task6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863DF55-4A8F-8348-934D-024AE54519AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138DACE-5A92-4735-A579-C6B6EED336F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="460" windowWidth="24960" windowHeight="17540" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
+    <workbookView xWindow="13470" yWindow="1920" windowWidth="24950" windowHeight="19390" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="with Topword Feature" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>WordCount</t>
   </si>
@@ -124,6 +125,14 @@
   </si>
   <si>
     <t>Cusine + Zipcode (CZ)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second Run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -131,41 +140,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,7 +177,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,7 +185,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,7 +194,16 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -238,32 +250,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,20 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1378E2-4645-E84F-9A85-C72496217D5F}">
-  <dimension ref="A3:H45"/>
+  <dimension ref="A3:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="19">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -607,508 +618,1167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19">
+    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.60599999999999998</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.629</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19">
+    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.627</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19">
+    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.64900000000000002</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19">
+    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.65</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19">
+    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.67</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.66600000000000004</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19">
+    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.67900000000000005</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19">
+    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.63800000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19">
+    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.67400000000000004</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.64</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.64900000000000002</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.61499999999999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19">
+    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0.69099999999999995</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="19">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19">
+    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
+      <c r="B15" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.61699999999999999</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
+      <c r="B16" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.56599999999999995</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19">
+        <v>0.628</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
+      <c r="B17" s="4">
+        <v>0.63800000000000001</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.621</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.59599999999999997</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.59199999999999997</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.65200000000000002</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.68</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.623</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19">
+    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.60699999999999998</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.629</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.627</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19">
+    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.65</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19">
+    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19">
+    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.61699999999999999</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19">
+    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.63</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
+    <row r="29" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.629</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.627</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.628</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.624</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3991C1-25A0-4693-8D3D-C20DF14E3884}">
+  <dimension ref="B3:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/task6/results.xlsx
+++ b/task6/results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geesi\Desktop\cs598_dm_cap\task6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138DACE-5A92-4735-A579-C6B6EED336F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C213699-BA40-4786-A39A-192DE8809E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="1920" windowWidth="24950" windowHeight="19390" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
+    <workbookView xWindow="10910" yWindow="10650" windowWidth="24950" windowHeight="19390" activeTab="1" xr2:uid="{904B6693-E908-974C-806C-11E77D92C6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="submit_results_nb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>WordCount</t>
   </si>
@@ -132,6 +132,74 @@
   </si>
   <si>
     <t>Second Run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_c_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_c_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_c_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_lda_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_lda_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_lda_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_ng_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_ng_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_ng_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tfidf_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tt_ea_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tt_ecz_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_tt_submit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1378E2-4645-E84F-9A85-C72496217D5F}">
   <dimension ref="A3:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F26"/>
     </sheetView>
   </sheetViews>
@@ -1580,205 +1648,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3991C1-25A0-4693-8D3D-C20DF14E3884}">
-  <dimension ref="B3:G26"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0.8931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0.90049999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0.91610000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.65990000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>0.75729999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0.65790000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>0.83150000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.66449999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0.79459999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.80269999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0.85160000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>0.81840000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0.6845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.78620000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
